--- a/UseCaseIScenarij/RegistracijaMušterije.xlsx
+++ b/UseCaseIScenarij/RegistracijaMušterije.xlsx
@@ -85,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,14 +93,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +424,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,55 +439,63 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UseCaseIScenarij/RegistracijaMušterije.xlsx
+++ b/UseCaseIScenarij/RegistracijaMušterije.xlsx
@@ -22,9 +22,6 @@
     <t>Mušterija</t>
   </si>
   <si>
-    <t>Baza podataka</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prvi mogući scenarijo </t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>3. Pohranjivanje u bazu podataka</t>
+  </si>
+  <si>
+    <t>Analiza sadržaja</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,55 +443,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
